--- a/biology/Botanique/Allophylus_ujori/Allophylus_ujori.xlsx
+++ b/biology/Botanique/Allophylus_ujori/Allophylus_ujori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allophylus ujori Cheek est une espèce de plantes de la famille des Sapindaceae et du genre Allophylus, présente au Cameroun et au Nigeria. Jusqu'en 2004, elle a été confondue avec Allophylus conraui[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allophylus ujori Cheek est une espèce de plantes de la famille des Sapindaceae et du genre Allophylus, présente au Cameroun et au Nigeria. Jusqu'en 2004, elle a été confondue avec Allophylus conraui.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique ujori rend hommage à Edwin Ujor[3], collecteur des premiers spécimens à Bali Ngemba.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique ujori rend hommage à Edwin Ujor, collecteur des premiers spécimens à Bali Ngemba.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbrisseau ou arbuste épineux pouvant atteindre 10 m de hauteur[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbrisseau ou arbuste épineux pouvant atteindre 10 m de hauteur. 
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Relativement rare, l'espèce n'a été récoltée que sur deux sites au nord-ouest du Cameroun, dans la réserve forestière de Bali Ngemba et à proximité de Dom.  Elle a également été observée sur deux sites au nord-est du Nigeria (plateau de Mambila, Mayo Nga-Njawe[2]).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Relativement rare, l'espèce n'a été récoltée que sur deux sites au nord-ouest du Cameroun, dans la réserve forestière de Bali Ngemba et à proximité de Dom.  Elle a également été observée sur deux sites au nord-est du Nigeria (plateau de Mambila, Mayo Nga-Njawe).
 </t>
         </is>
       </c>
